--- a/CMMConfiguration/CMMConfiguration.xlsx
+++ b/CMMConfiguration/CMMConfiguration.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="4515"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -389,7 +389,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CMMConfiguration/CMMConfiguration.xlsx
+++ b/CMMConfiguration/CMMConfiguration.xlsx
@@ -5,14 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\darks\documents\visual studio 2017\Projects\CMMConfiguration\CMMConfiguration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darks\documents\visual studio 2017\Projects\CMMConfiguration\CMMConfiguration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="4515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="5760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="CMMTemplate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,9 +24,21 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Title Font</t>
+  </si>
+  <si>
+    <t>Title Font</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +53,30 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,10 +101,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,13 +427,51 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>